--- a/Result/Saisonalitaet.xlsx
+++ b/Result/Saisonalitaet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\System Development\IBKR\IAB API System\IAB API\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7EC907-C7A5-49C7-946A-122EEF1E227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356DCE42-12EC-47AB-9708-5BEA3EC425C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18710" yWindow="5330" windowWidth="18010" windowHeight="15450" xr2:uid="{3DA296E0-B227-4A47-BFEE-B4102A23F534}"/>
+    <workbookView xWindow="47040" yWindow="2860" windowWidth="24680" windowHeight="15450" xr2:uid="{3DA296E0-B227-4A47-BFEE-B4102A23F534}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>Aktie</t>
   </si>
@@ -280,6 +280,69 @@
   </si>
   <si>
     <t xml:space="preserve">Mitte März </t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Anfang September</t>
+  </si>
+  <si>
+    <t>Ende November</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>Ende März</t>
+  </si>
+  <si>
+    <t>Anfang Juni</t>
+  </si>
+  <si>
+    <t>Ende Oktober</t>
+  </si>
+  <si>
+    <t>Mitte November</t>
+  </si>
+  <si>
+    <t>Anfang Januar</t>
+  </si>
+  <si>
+    <t>Mitte November  mit Schwäche Anfang Dezember)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Ende August</t>
+  </si>
+  <si>
+    <t>ende Nov</t>
+  </si>
+  <si>
+    <t>Ende Dezember</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>Mitte JUni</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitte Juni</t>
+  </si>
+  <si>
+    <t>Mitte August</t>
+  </si>
+  <si>
+    <t>IDEXF / IDEXY</t>
   </si>
 </sst>
 </file>
@@ -657,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9154FC-EFFE-4DAD-9D4B-BAE3C85F5B67}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1233,10 +1296,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="J24" s="4">
         <v>-0.13</v>
@@ -1393,6 +1456,158 @@
       </c>
       <c r="I30" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="2">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37" s="2">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
